--- a/biology/Botanique/Ponerorchis/Ponerorchis.xlsx
+++ b/biology/Botanique/Ponerorchis/Ponerorchis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ponerorchis est un genre de la famille des Orchidaceae, de la sous-famille des Orchidoideae, comptant 18 espèces d'orchidées terrestres d'Asie
-Ce genre peut être rattaché au genre Habenaria[1].
+Ce genre peut être rattaché au genre Habenaria.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Habenaria Willd. 1805</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ponerorchis brevicalcarata (Finet) Soó, Acta Bot. Acad. Sci. Hung. 12: 353 (1966).
@@ -591,7 +607,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Asie: Himalaya, Sibérie, Japon
 </t>
